--- a/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.11</t>
+    <t>0.9.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T15:54:27-03:00</t>
+    <t>2025-10-30T18:43:23-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.15</t>
+    <t>0.9.20</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T18:43:23-03:00</t>
+    <t>2025-11-18T19:57:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1035,7 +1035,7 @@
 </t>
   </si>
   <si>
-    <t>Type of pharmacy service</t>
+    <t>Type of pharmacy service. Exactly 1 required to satisfy CA Core+ 1.0.1-dft-preballot.</t>
   </si>
   <si>
     <t>The specific type of service that may be delivered or performed.</t>
@@ -1045,39 +1045,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.coding</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.coding.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.coding.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.coding.system</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.coding.version</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.coding.code</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.coding.display</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>HealthcareService.type.text</t>
   </si>
   <si>
     <t>HealthcareService.specialty</t>
@@ -1812,7 +1779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ124"/>
+  <dimension ref="A1:AJ113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3403,7 +3370,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>166</v>
@@ -5243,7 +5210,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
@@ -6163,7 +6130,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
@@ -8618,7 +8585,7 @@
         <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>73</v>
@@ -8627,16 +8594,16 @@
         <v>73</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>175</v>
+        <v>333</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8663,13 +8630,13 @@
         <v>73</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>73</v>
@@ -8687,38 +8654,38 @@
         <v>73</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>73</v>
@@ -8727,20 +8694,18 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>73</v>
@@ -8777,19 +8742,19 @@
         <v>73</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
@@ -8801,15 +8766,15 @@
         <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8820,10 +8785,10 @@
         <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>73</v>
@@ -8832,20 +8797,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>73</v>
       </c>
@@ -8893,13 +8854,13 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>73</v>
@@ -8910,10 +8871,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8933,18 +8894,20 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>73</v>
@@ -8993,7 +8956,7 @@
         <v>73</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
@@ -9005,26 +8968,26 @@
         <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>73</v>
@@ -9036,17 +8999,15 @@
         <v>73</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>73</v>
@@ -9083,39 +9044,39 @@
         <v>73</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9138,26 +9099,22 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>297</v>
+        <v>73</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>73</v>
@@ -9199,7 +9156,7 @@
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
@@ -9216,10 +9173,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9230,7 +9187,7 @@
         <v>74</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>73</v>
@@ -9239,19 +9196,19 @@
         <v>73</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9301,13 +9258,13 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>73</v>
@@ -9318,10 +9275,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9332,7 +9289,7 @@
         <v>74</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>73</v>
@@ -9341,21 +9298,21 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>101</v>
+        <v>362</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>73</v>
       </c>
@@ -9403,13 +9360,13 @@
         <v>73</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>73</v>
@@ -9420,10 +9377,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9434,7 +9391,7 @@
         <v>74</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>73</v>
@@ -9443,21 +9400,21 @@
         <v>73</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>73</v>
       </c>
@@ -9481,13 +9438,13 @@
         <v>73</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>73</v>
+        <v>368</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>73</v>
+        <v>370</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>73</v>
@@ -9505,13 +9462,13 @@
         <v>73</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>73</v>
@@ -9522,10 +9479,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9536,7 +9493,7 @@
         <v>74</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>73</v>
@@ -9545,23 +9502,19 @@
         <v>73</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>263</v>
+        <v>372</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>73</v>
       </c>
@@ -9609,13 +9562,13 @@
         <v>73</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>73</v>
@@ -9626,10 +9579,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9649,23 +9602,19 @@
         <v>73</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>321</v>
+        <v>175</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>73</v>
       </c>
@@ -9713,7 +9662,7 @@
         <v>73</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>74</v>
@@ -9725,19 +9674,19 @@
         <v>73</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -9753,18 +9702,20 @@
         <v>73</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>344</v>
+        <v>179</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>73</v>
@@ -9789,13 +9740,13 @@
         <v>73</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>73</v>
@@ -9813,7 +9764,7 @@
         <v>73</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>343</v>
+        <v>182</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>74</v>
@@ -9825,47 +9776,51 @@
         <v>73</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>349</v>
+        <v>125</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>73</v>
       </c>
@@ -9913,7 +9868,7 @@
         <v>73</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>74</v>
@@ -9925,15 +9880,15 @@
         <v>73</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9941,28 +9896,28 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -9989,10 +9944,10 @@
         <v>73</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>73</v>
+        <v>385</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>73</v>
@@ -10013,7 +9968,7 @@
         <v>73</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>74</v>
@@ -10030,10 +9985,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10053,19 +10008,19 @@
         <v>73</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>174</v>
+        <v>349</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10115,7 +10070,7 @@
         <v>73</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>74</v>
@@ -10132,10 +10087,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10146,7 +10101,7 @@
         <v>74</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>73</v>
@@ -10158,15 +10113,17 @@
         <v>73</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>360</v>
+        <v>193</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>73</v>
@@ -10191,13 +10148,13 @@
         <v>73</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>73</v>
+        <v>394</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>73</v>
@@ -10215,13 +10172,13 @@
         <v>73</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>73</v>
@@ -10232,10 +10189,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10243,10 +10200,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>73</v>
@@ -10255,18 +10212,20 @@
         <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>364</v>
+        <v>193</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>73</v>
@@ -10291,10 +10250,10 @@
         <v>73</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>73</v>
@@ -10315,13 +10274,13 @@
         <v>73</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>73</v>
@@ -10332,10 +10291,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10346,7 +10305,7 @@
         <v>74</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>73</v>
@@ -10358,17 +10317,15 @@
         <v>73</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>368</v>
+        <v>174</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>369</v>
+        <v>175</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>73</v>
@@ -10417,31 +10374,31 @@
         <v>73</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>367</v>
+        <v>177</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -10460,16 +10417,16 @@
         <v>73</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>374</v>
+        <v>179</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>376</v>
+        <v>162</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10507,19 +10464,19 @@
         <v>73</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>372</v>
+        <v>182</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>74</v>
@@ -10531,15 +10488,15 @@
         <v>73</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10547,7 +10504,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>75</v>
@@ -10559,21 +10516,23 @@
         <v>73</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>378</v>
+        <v>285</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>379</v>
+        <v>286</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>73</v>
       </c>
@@ -10597,13 +10556,13 @@
         <v>73</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>379</v>
+        <v>73</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>381</v>
+        <v>73</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>73</v>
@@ -10621,7 +10580,7 @@
         <v>73</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>74</v>
@@ -10638,10 +10597,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10652,7 +10611,7 @@
         <v>74</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>73</v>
@@ -10664,13 +10623,13 @@
         <v>73</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>383</v>
+        <v>174</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>385</v>
+        <v>176</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10721,38 +10680,38 @@
         <v>73</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>382</v>
+        <v>177</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>73</v>
@@ -10764,15 +10723,17 @@
         <v>73</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>73</v>
@@ -10809,50 +10770,50 @@
         <v>73</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>73</v>
@@ -10861,27 +10822,29 @@
         <v>73</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>180</v>
+        <v>294</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>73</v>
@@ -10923,63 +10886,61 @@
         <v>73</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>182</v>
+        <v>298</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>391</v>
+        <v>301</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>73</v>
       </c>
@@ -11027,27 +10988,27 @@
         <v>73</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11067,19 +11028,21 @@
         <v>73</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>73</v>
       </c>
@@ -11103,10 +11066,10 @@
         <v>73</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>73</v>
@@ -11127,7 +11090,7 @@
         <v>73</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>393</v>
+        <v>308</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>74</v>
@@ -11144,10 +11107,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11167,21 +11130,21 @@
         <v>73</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>73</v>
       </c>
@@ -11229,7 +11192,7 @@
         <v>73</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>397</v>
+        <v>313</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>74</v>
@@ -11246,10 +11209,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11260,7 +11223,7 @@
         <v>74</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>73</v>
@@ -11269,21 +11232,23 @@
         <v>73</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>73</v>
       </c>
@@ -11307,13 +11272,13 @@
         <v>73</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>405</v>
+        <v>73</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>406</v>
+        <v>73</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>73</v>
@@ -11331,13 +11296,13 @@
         <v>73</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>401</v>
+        <v>319</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>73</v>
@@ -11348,10 +11313,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11359,10 +11324,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>73</v>
@@ -11371,21 +11336,23 @@
         <v>73</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>73</v>
       </c>
@@ -11409,10 +11376,10 @@
         <v>73</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>411</v>
+        <v>73</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>73</v>
@@ -11433,13 +11400,13 @@
         <v>73</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>73</v>
@@ -11450,10 +11417,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11464,7 +11431,7 @@
         <v>74</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>73</v>
@@ -11476,15 +11443,17 @@
         <v>73</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>175</v>
+        <v>414</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>73</v>
@@ -11509,13 +11478,13 @@
         <v>73</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>73</v>
@@ -11533,31 +11502,31 @@
         <v>73</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>177</v>
+        <v>413</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -11576,17 +11545,15 @@
         <v>73</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>179</v>
+        <v>418</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>73</v>
@@ -11611,31 +11578,31 @@
         <v>73</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>73</v>
+        <v>420</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>73</v>
+        <v>421</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>74</v>
@@ -11647,15 +11614,15 @@
         <v>73</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11666,7 +11633,7 @@
         <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>73</v>
@@ -11675,23 +11642,19 @@
         <v>73</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>285</v>
+        <v>423</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>73</v>
       </c>
@@ -11739,13 +11702,13 @@
         <v>73</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>289</v>
+        <v>422</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>73</v>
@@ -11756,10 +11719,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11770,7 +11733,7 @@
         <v>74</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>73</v>
@@ -11782,15 +11745,17 @@
         <v>73</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>175</v>
+        <v>426</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>73</v>
@@ -11839,38 +11804,38 @@
         <v>73</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>177</v>
+        <v>425</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>73</v>
@@ -11882,17 +11847,15 @@
         <v>73</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>73</v>
@@ -11929,50 +11892,50 @@
         <v>73</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>73</v>
@@ -11981,29 +11944,27 @@
         <v>73</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>294</v>
+        <v>180</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>418</v>
+        <v>73</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>73</v>
@@ -12045,61 +12006,63 @@
         <v>73</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12147,27 +12110,27 @@
         <v>73</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12178,7 +12141,7 @@
         <v>74</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>73</v>
@@ -12187,21 +12150,19 @@
         <v>73</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>101</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>305</v>
+        <v>433</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>306</v>
+        <v>434</v>
       </c>
       <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>73</v>
       </c>
@@ -12225,13 +12186,13 @@
         <v>73</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>73</v>
+        <v>436</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>73</v>
@@ -12249,13 +12210,13 @@
         <v>73</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>308</v>
+        <v>432</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>73</v>
@@ -12266,10 +12227,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12289,21 +12250,19 @@
         <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>310</v>
+        <v>438</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>311</v>
+        <v>439</v>
       </c>
       <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>73</v>
       </c>
@@ -12351,7 +12310,7 @@
         <v>73</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>313</v>
+        <v>437</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>74</v>
@@ -12368,10 +12327,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12391,23 +12350,21 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>263</v>
+        <v>441</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>315</v>
+        <v>442</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>316</v>
+        <v>443</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>73</v>
       </c>
@@ -12455,7 +12412,7 @@
         <v>73</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>319</v>
+        <v>440</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>74</v>
@@ -12472,10 +12429,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12495,23 +12452,21 @@
         <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>174</v>
+        <v>441</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>322</v>
+        <v>447</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>73</v>
       </c>
@@ -12559,7 +12514,7 @@
         <v>73</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>74</v>
@@ -12576,10 +12531,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12602,17 +12557,15 @@
         <v>73</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>193</v>
+        <v>372</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>73</v>
@@ -12637,13 +12590,13 @@
         <v>73</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>73</v>
@@ -12661,7 +12614,7 @@
         <v>73</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>74</v>
@@ -12678,10 +12631,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12692,7 +12645,7 @@
         <v>74</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>73</v>
@@ -12704,13 +12657,13 @@
         <v>73</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>429</v>
+        <v>175</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>430</v>
+        <v>176</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12737,13 +12690,13 @@
         <v>73</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>431</v>
+        <v>73</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>432</v>
+        <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>73</v>
@@ -12761,38 +12714,38 @@
         <v>73</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>428</v>
+        <v>177</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>73</v>
@@ -12804,15 +12757,17 @@
         <v>73</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>434</v>
+        <v>179</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>73</v>
@@ -12861,31 +12816,31 @@
         <v>73</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>433</v>
+        <v>182</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -12898,24 +12853,26 @@
         <v>73</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>383</v>
+        <v>125</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>73</v>
       </c>
@@ -12963,7 +12920,7 @@
         <v>73</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>74</v>
@@ -12975,15 +12932,15 @@
         <v>73</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -12991,7 +12948,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>81</v>
@@ -13009,10 +12966,10 @@
         <v>174</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>175</v>
+        <v>455</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>176</v>
+        <v>456</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13063,10 +13020,10 @@
         <v>73</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>177</v>
+        <v>454</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>81</v>
@@ -13075,26 +13032,26 @@
         <v>73</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>73</v>
@@ -13106,17 +13063,15 @@
         <v>73</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>179</v>
+        <v>458</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>73</v>
@@ -13165,63 +13120,59 @@
         <v>73</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>182</v>
+        <v>457</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>73</v>
       </c>
@@ -13269,27 +13220,27 @@
         <v>73</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13312,13 +13263,13 @@
         <v>73</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>101</v>
+        <v>464</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -13345,13 +13296,13 @@
         <v>73</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>446</v>
+        <v>73</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>73</v>
@@ -13369,7 +13320,7 @@
         <v>73</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>74</v>
@@ -13384,1118 +13335,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="P120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ124">
+  <autoFilter ref="A1:AJ113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14505,7 +13346,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI123">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.20</t>
+    <t>0.9.21</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T19:57:13-03:00</t>
+    <t>2025-11-24T17:38:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1788,17 +1788,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.0" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.01171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1807,21 +1807,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.5234375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3867,7 +3867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>202</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>209</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>226</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>233</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>235</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>238</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>245</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>247</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>250</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>257</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>259</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>326</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>341</v>
       </c>
@@ -13337,12 +13337,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ113">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T16:51:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.21</t>
+    <t>0.9.22</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T17:07:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.22</t>
+    <t>0.9.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T17:07:48-05:00</t>
+    <t>2025-12-02T11:10:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1788,17 +1788,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.01171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.2421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.0078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1807,21 +1807,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.5234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3867,7 +3867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>202</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>209</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>226</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>233</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>235</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>238</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>245</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>247</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>250</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>257</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>259</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>326</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>341</v>
       </c>
@@ -13337,12 +13337,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ113">
-    <filterColumn colId="7">
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="27">
+    <filterColumn colId="26">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.23</t>
+    <t>0.9.24</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T11:10:54-03:00</t>
+    <t>2025-12-08T15:17:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -941,7 +941,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://snomed.info/sct</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1280,7 +1280,7 @@
     <t>HealthcareService.characteristic.coding.system</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/fhir/service-mode</t>
+    <t>http://terminology.hl7.org/fhir/service-mode</t>
   </si>
   <si>
     <t>HealthcareService.characteristic.coding.version</t>
@@ -1788,17 +1788,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.0" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.01171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1807,21 +1807,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.5234375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3867,7 +3867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>202</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>209</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>226</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>233</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>235</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>238</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>245</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>247</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>250</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>257</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>259</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>326</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>341</v>
       </c>
@@ -13337,12 +13337,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ113">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-healthcareservice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.24</t>
+    <t>0.9.25</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T15:17:38-05:00</t>
+    <t>2025-12-10T09:54:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
